--- a/manual/tables/ee18btech11012_damp.xlsx
+++ b/manual/tables/ee18btech11012_damp.xlsx
@@ -86,15 +86,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,21 +225,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -251,7 +256,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -310,15 +315,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.57"/>
     <col customWidth="1" min="2" max="2" width="7.14"/>
     <col customWidth="1" min="3" max="3" width="11.29"/>
     <col customWidth="1" min="4" max="4" width="15.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -328,39 +334,519 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
